--- a/Etudes Ultra-son/Mappage du signal.xlsx
+++ b/Etudes Ultra-son/Mappage du signal.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\PRD Balises\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\GitHub\PRD Balises\Etudes Ultra-son\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,8 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
-    <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +201,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -239,10 +237,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -331,6 +326,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BD0-481C-BC6F-A8F746B7FD82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -349,10 +349,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -441,6 +438,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3BD0-481C-BC6F-A8F746B7FD82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -459,10 +461,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -548,6 +547,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3BD0-481C-BC6F-A8F746B7FD82}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -720,7 +724,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="fr-FR"/>
   <c:roundedCorners val="0"/>
@@ -745,10 +749,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -837,6 +838,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0E22-4D42-BC8E-DE063B1C22B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -844,10 +850,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -923,6 +926,9 @@
                 <c:pt idx="6">
                   <c:v>66</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>55</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>48</c:v>
                 </c:pt>
@@ -933,6 +939,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E22-4D42-BC8E-DE063B1C22B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -940,10 +951,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:shade val="95000"/>
-                  <a:satMod val="105000"/>
-                </a:schemeClr>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:prstDash val="solid"/>
               <a:round/>
@@ -1023,6 +1031,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0E22-4D42-BC8E-DE063B1C22B0}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2171,7 +2184,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Graphique 8"/>
+        <xdr:cNvPr id="9" name="Graphique 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2201,7 +2220,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Graphique 10"/>
+        <xdr:cNvPr id="11" name="Graphique 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -2310,6 +2335,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2345,6 +2387,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2524,7 +2583,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2853,7 +2912,9 @@
       <c r="C20" s="4">
         <v>248</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>55</v>
+      </c>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -2894,28 +2955,4 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>